--- a/Code/Results/Cases/Case_1_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2759882356331218</v>
+        <v>0.1021555616740102</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05009580387493173</v>
+        <v>0.01642777940779894</v>
       </c>
       <c r="E2">
-        <v>1.429462286720394</v>
+        <v>0.4249720752661972</v>
       </c>
       <c r="F2">
-        <v>0.3890629378670241</v>
+        <v>0.4036106788199163</v>
       </c>
       <c r="G2">
-        <v>0.2856167140472508</v>
+        <v>0.2551188872457146</v>
       </c>
       <c r="H2">
-        <v>0.2055140037438292</v>
+        <v>0.4115050326584253</v>
       </c>
       <c r="I2">
-        <v>0.1453430258986225</v>
+        <v>0.347860017465653</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.106800417416167</v>
+        <v>0.6551946517829492</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6472580159684398</v>
+        <v>1.02715882567027</v>
       </c>
       <c r="O2">
-        <v>0.9874134857643355</v>
+        <v>1.251641335899564</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2402780729761247</v>
+        <v>0.09096027898117143</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04393292587692343</v>
+        <v>0.01441394226924331</v>
       </c>
       <c r="E3">
-        <v>1.228841387732317</v>
+        <v>0.3707566556344091</v>
       </c>
       <c r="F3">
-        <v>0.3514512426116099</v>
+        <v>0.3976163764266119</v>
       </c>
       <c r="G3">
-        <v>0.256263396659179</v>
+        <v>0.2503476832898599</v>
       </c>
       <c r="H3">
-        <v>0.1972522234230709</v>
+        <v>0.412803309531192</v>
       </c>
       <c r="I3">
-        <v>0.1555991700553807</v>
+        <v>0.3532795260296455</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.848430886010902</v>
+        <v>0.5740045889344572</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6601561165285759</v>
+        <v>1.033870049886879</v>
       </c>
       <c r="O3">
-        <v>0.9075336480111105</v>
+        <v>1.243984724533775</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2183314103822909</v>
+        <v>0.08408673090825403</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0401387590805129</v>
+        <v>0.01317131093117752</v>
       </c>
       <c r="E4">
-        <v>1.10771336751985</v>
+        <v>0.3375480711026739</v>
       </c>
       <c r="F4">
-        <v>0.3291392593431226</v>
+        <v>0.3942437459020098</v>
       </c>
       <c r="G4">
-        <v>0.2389486343902476</v>
+        <v>0.2476528939344433</v>
       </c>
       <c r="H4">
-        <v>0.1926226193760385</v>
+        <v>0.413826878323988</v>
       </c>
       <c r="I4">
-        <v>0.1622506099545055</v>
+        <v>0.3567975250746325</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.689779979809032</v>
+        <v>0.5239262514584482</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6688428382297928</v>
+        <v>1.038371686572646</v>
       </c>
       <c r="O4">
-        <v>0.8609075940309623</v>
+        <v>1.240246089720756</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2093816306520182</v>
+        <v>0.08128605533616451</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03858987294454863</v>
+        <v>0.01266342406631082</v>
       </c>
       <c r="E5">
-        <v>1.058791794356125</v>
+        <v>0.3240338622339891</v>
       </c>
       <c r="F5">
-        <v>0.3202286392624742</v>
+        <v>0.3929466644707063</v>
       </c>
       <c r="G5">
-        <v>0.232056273463094</v>
+        <v>0.2466135479801963</v>
       </c>
       <c r="H5">
-        <v>0.1908410989440057</v>
+        <v>0.4143009011998302</v>
       </c>
       <c r="I5">
-        <v>0.165047960264518</v>
+        <v>0.3582790100338156</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.625103897668993</v>
+        <v>0.5034627838914787</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6725706809824032</v>
+        <v>1.040302059196634</v>
       </c>
       <c r="O5">
-        <v>0.84247154940428</v>
+        <v>1.238964067453466</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2078951106845182</v>
+        <v>0.08082103386608708</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03833251142213356</v>
+        <v>0.01257900003751189</v>
       </c>
       <c r="E6">
-        <v>1.050692773357355</v>
+        <v>0.3217909143882167</v>
       </c>
       <c r="F6">
-        <v>0.3187595922216744</v>
+        <v>0.392735949600123</v>
       </c>
       <c r="G6">
-        <v>0.2309212702071477</v>
+        <v>0.2464445102718571</v>
       </c>
       <c r="H6">
-        <v>0.1905514465913143</v>
+        <v>0.4143830488538853</v>
       </c>
       <c r="I6">
-        <v>0.1655176395269153</v>
+        <v>0.3585279006596005</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.61436239444248</v>
+        <v>0.5000614801823531</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6732008957787912</v>
+        <v>1.040628393382264</v>
       </c>
       <c r="O6">
-        <v>0.8394431059335687</v>
+        <v>1.238765758968825</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2182107376917202</v>
+        <v>0.08404895826434711</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04011788155803231</v>
+        <v>0.01316446743543764</v>
       </c>
       <c r="E7">
-        <v>1.107051914248302</v>
+        <v>0.3373657406246622</v>
       </c>
       <c r="F7">
-        <v>0.3290183709913208</v>
+        <v>0.3942259402257022</v>
       </c>
       <c r="G7">
-        <v>0.2388550380410308</v>
+        <v>0.2476386391638385</v>
       </c>
       <c r="H7">
-        <v>0.1925981758317477</v>
+        <v>0.413833040769461</v>
       </c>
       <c r="I7">
-        <v>0.1622879872742684</v>
+        <v>0.35681731107494</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.688907862589446</v>
+        <v>0.5236504999250826</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6688923587032178</v>
+        <v>1.03839733170124</v>
       </c>
       <c r="O7">
-        <v>0.86065673019543</v>
+        <v>1.240227822810098</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2636788725012877</v>
+        <v>0.09829549157478823</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04797283073929748</v>
+        <v>0.01573470119191711</v>
       </c>
       <c r="E8">
-        <v>1.359813313533081</v>
+        <v>0.4062610755421474</v>
       </c>
       <c r="F8">
-        <v>0.3759229393579346</v>
+        <v>0.4014798583325714</v>
       </c>
       <c r="G8">
-        <v>0.2753396439825977</v>
+        <v>0.253424915056371</v>
       </c>
       <c r="H8">
-        <v>0.2025694185342388</v>
+        <v>0.4119056686234757</v>
       </c>
       <c r="I8">
-        <v>0.1488044908575604</v>
+        <v>0.3496891439856389</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.017703180255893</v>
+        <v>0.6272480843206267</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6515429600139484</v>
+        <v>1.029393875775455</v>
       </c>
       <c r="O8">
-        <v>0.9593411057421974</v>
+        <v>1.24880122582303</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3527410346592035</v>
+        <v>0.1262264331171252</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06330558686091337</v>
+        <v>0.02072494182259987</v>
       </c>
       <c r="E9">
-        <v>1.875626364521182</v>
+        <v>0.5420740011794152</v>
       </c>
       <c r="F9">
-        <v>0.4748256025543967</v>
+        <v>0.4181550460171337</v>
       </c>
       <c r="G9">
-        <v>0.3532109876402956</v>
+        <v>0.2666456529680801</v>
       </c>
       <c r="H9">
-        <v>0.2259467677352518</v>
+        <v>0.4099241975833934</v>
       </c>
       <c r="I9">
-        <v>0.1252760488191106</v>
+        <v>0.3372216081716659</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.663482938376632</v>
+        <v>0.8285636016978799</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6238454967439608</v>
+        <v>1.014754879565679</v>
       </c>
       <c r="O9">
-        <v>1.174206234814818</v>
+        <v>1.27327845085577</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.418211524876142</v>
+        <v>0.1467323726724317</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07454278312896889</v>
+        <v>0.02435930573314948</v>
       </c>
       <c r="E10">
-        <v>2.272854200439795</v>
+        <v>0.6424015897960373</v>
       </c>
       <c r="F10">
-        <v>0.5527909426973849</v>
+        <v>0.4319121419258067</v>
       </c>
       <c r="G10">
-        <v>0.41533939146818</v>
+        <v>0.2775182862675365</v>
       </c>
       <c r="H10">
-        <v>0.2459150030583999</v>
+        <v>0.4095673111052918</v>
       </c>
       <c r="I10">
-        <v>0.1099129810534674</v>
+        <v>0.3289824973184466</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.140273735404435</v>
+        <v>0.9753152803850469</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6076991795831361</v>
+        <v>1.005831442227979</v>
       </c>
       <c r="O10">
-        <v>1.34829700551694</v>
+        <v>1.295976703546586</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4480273005539175</v>
+        <v>0.1560556089372369</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0796525529967127</v>
+        <v>0.02600543359064034</v>
       </c>
       <c r="E11">
-        <v>2.459051430250838</v>
+        <v>0.6881867887667141</v>
       </c>
       <c r="F11">
-        <v>0.5896733396417702</v>
+        <v>0.4385003018318514</v>
       </c>
       <c r="G11">
-        <v>0.4449295198346164</v>
+        <v>0.2827200158037186</v>
       </c>
       <c r="H11">
-        <v>0.2557181390401269</v>
+        <v>0.4096442091024244</v>
       </c>
       <c r="I11">
-        <v>0.1033758404170512</v>
+        <v>0.3254341973865075</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.358114860794274</v>
+        <v>1.041819376314862</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6013486183851171</v>
+        <v>1.002168251796853</v>
       </c>
       <c r="O11">
-        <v>1.431804282228768</v>
+        <v>1.307335870868286</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4593244575101068</v>
+        <v>0.1595851251667568</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08158749613698291</v>
+        <v>0.02662771676664022</v>
       </c>
       <c r="E12">
-        <v>2.530494725238654</v>
+        <v>0.7055472445210711</v>
       </c>
       <c r="F12">
-        <v>0.6038672443667394</v>
+        <v>0.4410426963418246</v>
       </c>
       <c r="G12">
-        <v>0.4563491506844457</v>
+        <v>0.2847268193103218</v>
       </c>
       <c r="H12">
-        <v>0.2595441145433171</v>
+        <v>0.4097077757199941</v>
       </c>
       <c r="I12">
-        <v>0.1009683954646957</v>
+        <v>0.3241192730929507</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.440780790649683</v>
+        <v>1.066965378893485</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.599094203892335</v>
+        <v>1.00083794742541</v>
       </c>
       <c r="O12">
-        <v>1.464118366589162</v>
+        <v>1.311786601228278</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4568910897688454</v>
+        <v>0.1588250290536024</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08117076746555085</v>
+        <v>0.02649374515884517</v>
       </c>
       <c r="E13">
-        <v>2.515064087094913</v>
+        <v>0.7018073285057795</v>
       </c>
       <c r="F13">
-        <v>0.6007998204390645</v>
+        <v>0.4404930267342948</v>
       </c>
       <c r="G13">
-        <v>0.453879790374657</v>
+        <v>0.2842929677488115</v>
       </c>
       <c r="H13">
-        <v>0.2587148898388278</v>
+        <v>0.4096925527716877</v>
       </c>
       <c r="I13">
-        <v>0.1014838051496349</v>
+        <v>0.3244011870107303</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.422968804533809</v>
+        <v>1.061551430056284</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.599572920073328</v>
+        <v>1.001121924623078</v>
       </c>
       <c r="O13">
-        <v>1.457126977010063</v>
+        <v>1.31082140842193</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4489565817955281</v>
+        <v>0.156346005763865</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07981174054809514</v>
+        <v>0.02605665086861819</v>
       </c>
       <c r="E14">
-        <v>2.464909496421384</v>
+        <v>0.6896145816037205</v>
       </c>
       <c r="F14">
-        <v>0.5908363806666372</v>
+        <v>0.4387085113012148</v>
       </c>
       <c r="G14">
-        <v>0.4458645781621726</v>
+        <v>0.2828843733391011</v>
       </c>
       <c r="H14">
-        <v>0.2560305625842147</v>
+        <v>0.4096487481456421</v>
       </c>
       <c r="I14">
-        <v>0.1031763967587739</v>
+        <v>0.3253254416603873</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.36491211215619</v>
+        <v>1.04388891422829</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6011600878955292</v>
+        <v>1.00205766770798</v>
       </c>
       <c r="O14">
-        <v>1.434448485517038</v>
+        <v>1.307699040140278</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4440973789010059</v>
+        <v>0.1548273953757899</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07897930405157894</v>
+        <v>0.02578877750683262</v>
       </c>
       <c r="E15">
-        <v>2.434314633340037</v>
+        <v>0.682149163633369</v>
       </c>
       <c r="F15">
-        <v>0.5847638346397233</v>
+        <v>0.43762164760318</v>
       </c>
       <c r="G15">
-        <v>0.4409836993040699</v>
+        <v>0.2820263972947998</v>
       </c>
       <c r="H15">
-        <v>0.2544014680887443</v>
+        <v>0.4096264038665964</v>
       </c>
       <c r="I15">
-        <v>0.1042221119810442</v>
+        <v>0.3258953177389423</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.329374600660856</v>
+        <v>1.033065175884389</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6021520890741243</v>
+        <v>1.0026382402474</v>
       </c>
       <c r="O15">
-        <v>1.420649568962688</v>
+        <v>1.305805956130456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4162638101853418</v>
+        <v>0.1461229532344817</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07420882948979113</v>
+        <v>0.02425157987875082</v>
       </c>
       <c r="E16">
-        <v>2.260808293760505</v>
+        <v>0.6394124912066843</v>
       </c>
       <c r="F16">
-        <v>0.5504110620756677</v>
+        <v>0.4314882431650489</v>
       </c>
       <c r="G16">
-        <v>0.4134342892810423</v>
+        <v>0.277183508004299</v>
       </c>
       <c r="H16">
-        <v>0.245289680741493</v>
+        <v>0.4095671036183859</v>
       </c>
       <c r="I16">
-        <v>0.1103495459758938</v>
+        <v>0.3292184076257653</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.12605952025595</v>
+        <v>0.9709638736522095</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6081348369233766</v>
+        <v>1.0060788031154</v>
       </c>
       <c r="O16">
-        <v>1.342932357514997</v>
+        <v>1.295255207876096</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3991985138952998</v>
+        <v>0.1407815827380858</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07128195916495628</v>
+        <v>0.02330669612549485</v>
       </c>
       <c r="E17">
-        <v>2.155872633141129</v>
+        <v>0.6132334056088098</v>
       </c>
       <c r="F17">
-        <v>0.5297155872560069</v>
+        <v>0.4278102224554914</v>
       </c>
       <c r="G17">
-        <v>0.3968897676638505</v>
+        <v>0.2742782247136972</v>
       </c>
       <c r="H17">
-        <v>0.2398911998488273</v>
+        <v>0.4095920326435589</v>
       </c>
       <c r="I17">
-        <v>0.1142263368529892</v>
+        <v>0.3313081821024602</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.001600626035952</v>
+        <v>0.9328008787005331</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6120648855894544</v>
+        <v>1.008290864941578</v>
       </c>
       <c r="O17">
-        <v>1.296408812760376</v>
+        <v>1.289047845896221</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3893859878257047</v>
+        <v>0.1377089114036494</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06959828608648877</v>
+        <v>0.02276255218527012</v>
       </c>
       <c r="E18">
-        <v>2.096024158022686</v>
+        <v>0.5981895005315465</v>
       </c>
       <c r="F18">
-        <v>0.5179437963347837</v>
+        <v>0.4257257733269952</v>
       </c>
       <c r="G18">
-        <v>0.3874972245703106</v>
+        <v>0.272631236676844</v>
       </c>
       <c r="H18">
-        <v>0.236853190333747</v>
+        <v>0.4096288876187515</v>
       </c>
       <c r="I18">
-        <v>0.1164984759097739</v>
+        <v>0.3325289617470004</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.930101753931098</v>
+        <v>0.9108266952485167</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6144184801243071</v>
+        <v>1.009600475174864</v>
       </c>
       <c r="O18">
-        <v>1.27005096569431</v>
+        <v>1.285574786928436</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.386064093305265</v>
+        <v>0.1366684875325461</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06902817811053552</v>
+        <v>0.02257820022710177</v>
       </c>
       <c r="E19">
-        <v>2.075843587699808</v>
+        <v>0.5930981807455993</v>
       </c>
       <c r="F19">
-        <v>0.5139799984449596</v>
+        <v>0.4250253431692457</v>
       </c>
       <c r="G19">
-        <v>0.3843375855774553</v>
+        <v>0.2720777185196823</v>
       </c>
       <c r="H19">
-        <v>0.2358357907173456</v>
+        <v>0.4096452319882928</v>
       </c>
       <c r="I19">
-        <v>0.1172749588622444</v>
+        <v>0.3329455244493759</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.905907239781271</v>
+        <v>0.9033825546642333</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6152311449555299</v>
+        <v>1.01005029440929</v>
       </c>
       <c r="O19">
-        <v>1.261193492996938</v>
+        <v>1.284415552787578</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4010148224191852</v>
+        <v>0.141350229923944</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07159354973182985</v>
+        <v>0.02340735043005537</v>
       </c>
       <c r="E20">
-        <v>2.166989675764142</v>
+        <v>0.6160187932416363</v>
       </c>
       <c r="F20">
-        <v>0.5319048598852874</v>
+        <v>0.4281985392815812</v>
       </c>
       <c r="G20">
-        <v>0.3986380218428707</v>
+        <v>0.2745850057614376</v>
       </c>
       <c r="H20">
-        <v>0.2404588659981641</v>
+        <v>0.4095870482219368</v>
       </c>
       <c r="I20">
-        <v>0.1138092449423626</v>
+        <v>0.3310837765055822</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.014840262490168</v>
+        <v>0.9368658700410037</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6116368340443685</v>
+        <v>1.008051528433086</v>
       </c>
       <c r="O20">
-        <v>1.301319296269753</v>
+        <v>1.289698560468821</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4512869455248136</v>
+        <v>0.1570741840356789</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0802109177571495</v>
+        <v>0.02618506540572696</v>
       </c>
       <c r="E21">
-        <v>2.479614517734461</v>
+        <v>0.6931952605309988</v>
       </c>
       <c r="F21">
-        <v>0.5937565143659427</v>
+        <v>0.4392313736643843</v>
       </c>
       <c r="G21">
-        <v>0.4482128202690348</v>
+        <v>0.2832971049183755</v>
       </c>
       <c r="H21">
-        <v>0.2568158410836219</v>
+        <v>0.4096606793940794</v>
       </c>
       <c r="I21">
-        <v>0.1026773698079672</v>
+        <v>0.325053185502228</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.381959717774578</v>
+        <v>1.049077854241062</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.600689754903776</v>
+        <v>1.001781274694217</v>
       </c>
       <c r="O21">
-        <v>1.441090332875177</v>
+        <v>1.308612099507769</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4841819270717309</v>
+        <v>0.1673447960835119</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08584292071381583</v>
+        <v>0.02799420916196738</v>
       </c>
       <c r="E22">
-        <v>2.689459854293403</v>
+        <v>0.7437670149723488</v>
       </c>
       <c r="F22">
-        <v>0.6355178783586837</v>
+        <v>0.4467194949635171</v>
       </c>
       <c r="G22">
-        <v>0.4818755992687187</v>
+        <v>0.2892068706054687</v>
       </c>
       <c r="H22">
-        <v>0.2681745057058009</v>
+        <v>0.4099096057802427</v>
       </c>
       <c r="I22">
-        <v>0.0958001302473328</v>
+        <v>0.321279373705041</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.622929715071962</v>
+        <v>1.122194865550512</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5944156695938076</v>
+        <v>0.9980147197039457</v>
       </c>
       <c r="O22">
-        <v>1.536508590990763</v>
+        <v>1.321843485336103</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4666210238143691</v>
+        <v>0.1618638059317732</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08283691034239382</v>
+        <v>0.0270292204146827</v>
       </c>
       <c r="E23">
-        <v>2.576903324952198</v>
+        <v>0.7167632493378733</v>
       </c>
       <c r="F23">
-        <v>0.6130982250855936</v>
+        <v>0.4426975006955871</v>
       </c>
       <c r="G23">
-        <v>0.4637852221550105</v>
+        <v>0.2860328794648979</v>
       </c>
       <c r="H23">
-        <v>0.2620473633608214</v>
+        <v>0.4097583609674018</v>
       </c>
       <c r="I23">
-        <v>0.09943315019321924</v>
+        <v>0.3232781921560158</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.494211003692669</v>
+        <v>1.083191444861654</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5976811318292832</v>
+        <v>0.9999947070929451</v>
       </c>
       <c r="O23">
-        <v>1.485184280939336</v>
+        <v>1.314701806156137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4001936740199596</v>
+        <v>0.1410931502617814</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07145268269891858</v>
+        <v>0.0233618474750017</v>
       </c>
       <c r="E24">
-        <v>2.161962175010444</v>
+        <v>0.6147594984657587</v>
       </c>
       <c r="F24">
-        <v>0.530914698064251</v>
+        <v>0.4280228875133432</v>
       </c>
       <c r="G24">
-        <v>0.3978472668439395</v>
+        <v>0.2744462374953969</v>
       </c>
       <c r="H24">
-        <v>0.2402020204156372</v>
+        <v>0.4095892315217071</v>
       </c>
       <c r="I24">
-        <v>0.1139976774936519</v>
+        <v>0.3311851700335063</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.00885445684429</v>
+        <v>0.9350281925621289</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6118300634234473</v>
+        <v>1.008159614507115</v>
       </c>
       <c r="O24">
-        <v>1.299098059862501</v>
+        <v>1.289404074548571</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3286484200459512</v>
+        <v>0.1186722030635963</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05916372113659918</v>
+        <v>0.01938045516200759</v>
       </c>
       <c r="E25">
-        <v>1.7333495128956</v>
+        <v>0.5052453835082531</v>
       </c>
       <c r="F25">
-        <v>0.4472220400370759</v>
+        <v>0.4133803978028041</v>
       </c>
       <c r="G25">
-        <v>0.3313631817524225</v>
+        <v>0.2628667260298698</v>
       </c>
       <c r="H25">
-        <v>0.2191677372347982</v>
+        <v>0.4102674590303934</v>
       </c>
       <c r="I25">
-        <v>0.1313145023480792</v>
+        <v>0.3404326915049554</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.488506000206996</v>
+        <v>0.7743027973165226</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6306267422550391</v>
+        <v>1.018392915543963</v>
       </c>
       <c r="O25">
-        <v>1.113477648513367</v>
+        <v>1.265831789532569</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1021555616740102</v>
+        <v>0.2759882356328944</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01642777940779894</v>
+        <v>0.05009580387480383</v>
       </c>
       <c r="E2">
-        <v>0.4249720752661972</v>
+        <v>1.429462286720408</v>
       </c>
       <c r="F2">
-        <v>0.4036106788199163</v>
+        <v>0.389062937867017</v>
       </c>
       <c r="G2">
-        <v>0.2551188872457146</v>
+        <v>0.2856167140471939</v>
       </c>
       <c r="H2">
-        <v>0.4115050326584253</v>
+        <v>0.2055140037438292</v>
       </c>
       <c r="I2">
-        <v>0.347860017465653</v>
+        <v>0.1453430258986215</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6551946517829492</v>
+        <v>2.106800417416281</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.02715882567027</v>
+        <v>0.6472580159683829</v>
       </c>
       <c r="O2">
-        <v>1.251641335899564</v>
+        <v>0.9874134857643355</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09096027898117143</v>
+        <v>0.2402780729759968</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01441394226924331</v>
+        <v>0.04393292587680975</v>
       </c>
       <c r="E3">
-        <v>0.3707566556344091</v>
+        <v>1.228841387732331</v>
       </c>
       <c r="F3">
-        <v>0.3976163764266119</v>
+        <v>0.3514512426116312</v>
       </c>
       <c r="G3">
-        <v>0.2503476832898599</v>
+        <v>0.2562633966591221</v>
       </c>
       <c r="H3">
-        <v>0.412803309531192</v>
+        <v>0.1972522234230709</v>
       </c>
       <c r="I3">
-        <v>0.3532795260296455</v>
+        <v>0.1555991700553809</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5740045889344572</v>
+        <v>1.848430886010874</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.033870049886879</v>
+        <v>0.6601561165285261</v>
       </c>
       <c r="O3">
-        <v>1.243984724533775</v>
+        <v>0.9075336480111105</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08408673090825403</v>
+        <v>0.2183314103822909</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01317131093117752</v>
+        <v>0.04013875908050579</v>
       </c>
       <c r="E4">
-        <v>0.3375480711026739</v>
+        <v>1.107713367519835</v>
       </c>
       <c r="F4">
-        <v>0.3942437459020098</v>
+        <v>0.3291392593431226</v>
       </c>
       <c r="G4">
-        <v>0.2476528939344433</v>
+        <v>0.2389486343902973</v>
       </c>
       <c r="H4">
-        <v>0.413826878323988</v>
+        <v>0.1926226193760385</v>
       </c>
       <c r="I4">
-        <v>0.3567975250746325</v>
+        <v>0.1622506099545056</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5239262514584482</v>
+        <v>1.689779979809202</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.038371686572646</v>
+        <v>0.6688428382297928</v>
       </c>
       <c r="O4">
-        <v>1.240246089720756</v>
+        <v>0.8609075940310333</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08128605533616451</v>
+        <v>0.2093816306520182</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01266342406631082</v>
+        <v>0.03858987294458416</v>
       </c>
       <c r="E5">
-        <v>0.3240338622339891</v>
+        <v>1.058791794356125</v>
       </c>
       <c r="F5">
-        <v>0.3929466644707063</v>
+        <v>0.3202286392624885</v>
       </c>
       <c r="G5">
-        <v>0.2466135479801963</v>
+        <v>0.23205627346303</v>
       </c>
       <c r="H5">
-        <v>0.4143009011998302</v>
+        <v>0.1908410989440057</v>
       </c>
       <c r="I5">
-        <v>0.3582790100338156</v>
+        <v>0.1650479602645364</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5034627838914787</v>
+        <v>1.625103897669021</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.040302059196634</v>
+        <v>0.6725706809824032</v>
       </c>
       <c r="O5">
-        <v>1.238964067453466</v>
+        <v>0.8424715494042658</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08082103386608708</v>
+        <v>0.2078951106847597</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01257900003751189</v>
+        <v>0.03833251142225436</v>
       </c>
       <c r="E6">
-        <v>0.3217909143882167</v>
+        <v>1.050692773357355</v>
       </c>
       <c r="F6">
-        <v>0.392735949600123</v>
+        <v>0.3187595922216531</v>
       </c>
       <c r="G6">
-        <v>0.2464445102718571</v>
+        <v>0.2309212702072045</v>
       </c>
       <c r="H6">
-        <v>0.4143830488538853</v>
+        <v>0.1905514465912006</v>
       </c>
       <c r="I6">
-        <v>0.3585279006596005</v>
+        <v>0.1655176395268987</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5000614801823531</v>
+        <v>1.614362394442566</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.040628393382264</v>
+        <v>0.6732008957788409</v>
       </c>
       <c r="O6">
-        <v>1.238765758968825</v>
+        <v>0.8394431059336398</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08404895826434711</v>
+        <v>0.2182107376918339</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01316446743543764</v>
+        <v>0.04011788155791862</v>
       </c>
       <c r="E7">
-        <v>0.3373657406246622</v>
+        <v>1.107051914248331</v>
       </c>
       <c r="F7">
-        <v>0.3942259402257022</v>
+        <v>0.3290183709913066</v>
       </c>
       <c r="G7">
-        <v>0.2476386391638385</v>
+        <v>0.2388550380410308</v>
       </c>
       <c r="H7">
-        <v>0.413833040769461</v>
+        <v>0.1925981758317477</v>
       </c>
       <c r="I7">
-        <v>0.35681731107494</v>
+        <v>0.162287987274269</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5236504999250826</v>
+        <v>1.688907862589417</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.03839733170124</v>
+        <v>0.6688923587032107</v>
       </c>
       <c r="O7">
-        <v>1.240227822810098</v>
+        <v>0.8606567301953589</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09829549157478823</v>
+        <v>0.2636788725012877</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01573470119191711</v>
+        <v>0.04797283073933301</v>
       </c>
       <c r="E8">
-        <v>0.4062610755421474</v>
+        <v>1.359813313533138</v>
       </c>
       <c r="F8">
-        <v>0.4014798583325714</v>
+        <v>0.3759229393579275</v>
       </c>
       <c r="G8">
-        <v>0.253424915056371</v>
+        <v>0.2753396439825124</v>
       </c>
       <c r="H8">
-        <v>0.4119056686234757</v>
+        <v>0.2025694185342388</v>
       </c>
       <c r="I8">
-        <v>0.3496891439856389</v>
+        <v>0.148804490857559</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6272480843206267</v>
+        <v>2.017703180256035</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.029393875775455</v>
+        <v>0.6515429600139484</v>
       </c>
       <c r="O8">
-        <v>1.24880122582303</v>
+        <v>0.959341105742169</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1262264331171252</v>
+        <v>0.3527410346592035</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02072494182259987</v>
+        <v>0.06330558686079257</v>
       </c>
       <c r="E9">
-        <v>0.5420740011794152</v>
+        <v>1.875626364521139</v>
       </c>
       <c r="F9">
-        <v>0.4181550460171337</v>
+        <v>0.4748256025543967</v>
       </c>
       <c r="G9">
-        <v>0.2666456529680801</v>
+        <v>0.3532109876402956</v>
       </c>
       <c r="H9">
-        <v>0.4099241975833934</v>
+        <v>0.2259467677352518</v>
       </c>
       <c r="I9">
-        <v>0.3372216081716659</v>
+        <v>0.1252760488191101</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8285636016978799</v>
+        <v>2.663482938376632</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.014754879565679</v>
+        <v>0.6238454967438898</v>
       </c>
       <c r="O9">
-        <v>1.27327845085577</v>
+        <v>1.174206234814818</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1467323726724317</v>
+        <v>0.418211524876142</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02435930573314948</v>
+        <v>0.07454278312901863</v>
       </c>
       <c r="E10">
-        <v>0.6424015897960373</v>
+        <v>2.272854200439781</v>
       </c>
       <c r="F10">
-        <v>0.4319121419258067</v>
+        <v>0.5527909426973565</v>
       </c>
       <c r="G10">
-        <v>0.2775182862675365</v>
+        <v>0.4153393914682084</v>
       </c>
       <c r="H10">
-        <v>0.4095673111052918</v>
+        <v>0.2459150030585135</v>
       </c>
       <c r="I10">
-        <v>0.3289824973184466</v>
+        <v>0.1099129810534687</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9753152803850469</v>
+        <v>3.140273735404406</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.005831442227979</v>
+        <v>0.6076991795832072</v>
       </c>
       <c r="O10">
-        <v>1.295976703546586</v>
+        <v>1.348297005516883</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1560556089372369</v>
+        <v>0.4480273005537896</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02600543359064034</v>
+        <v>0.07965255299665586</v>
       </c>
       <c r="E11">
-        <v>0.6881867887667141</v>
+        <v>2.459051430250852</v>
       </c>
       <c r="F11">
-        <v>0.4385003018318514</v>
+        <v>0.5896733396417702</v>
       </c>
       <c r="G11">
-        <v>0.2827200158037186</v>
+        <v>0.4449295198345879</v>
       </c>
       <c r="H11">
-        <v>0.4096442091024244</v>
+        <v>0.2557181390401269</v>
       </c>
       <c r="I11">
-        <v>0.3254341973865075</v>
+        <v>0.1033758404170378</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.041819376314862</v>
+        <v>3.358114860794245</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.002168251796853</v>
+        <v>0.6013486183851739</v>
       </c>
       <c r="O11">
-        <v>1.307335870868286</v>
+        <v>1.431804282228626</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1595851251667568</v>
+        <v>0.4593244575101068</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02662771676664022</v>
+        <v>0.08158749613708949</v>
       </c>
       <c r="E12">
-        <v>0.7055472445210711</v>
+        <v>2.530494725238654</v>
       </c>
       <c r="F12">
-        <v>0.4410426963418246</v>
+        <v>0.6038672443667537</v>
       </c>
       <c r="G12">
-        <v>0.2847268193103218</v>
+        <v>0.4563491506843604</v>
       </c>
       <c r="H12">
-        <v>0.4097077757199941</v>
+        <v>0.2595441145433171</v>
       </c>
       <c r="I12">
-        <v>0.3241192730929507</v>
+        <v>0.1009683954646955</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.066965378893485</v>
+        <v>3.440780790649683</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.00083794742541</v>
+        <v>0.599094203892335</v>
       </c>
       <c r="O12">
-        <v>1.311786601228278</v>
+        <v>1.464118366589162</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1588250290536024</v>
+        <v>0.4568910897689591</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02649374515884517</v>
+        <v>0.08117076746543717</v>
       </c>
       <c r="E13">
-        <v>0.7018073285057795</v>
+        <v>2.515064087094927</v>
       </c>
       <c r="F13">
-        <v>0.4404930267342948</v>
+        <v>0.6007998204390645</v>
       </c>
       <c r="G13">
-        <v>0.2842929677488115</v>
+        <v>0.4538797903746996</v>
       </c>
       <c r="H13">
-        <v>0.4096925527716877</v>
+        <v>0.2587148898388563</v>
       </c>
       <c r="I13">
-        <v>0.3244011870107303</v>
+        <v>0.1014838051496366</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.061551430056284</v>
+        <v>3.422968804533696</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.001121924623078</v>
+        <v>0.5995729200732782</v>
       </c>
       <c r="O13">
-        <v>1.31082140842193</v>
+        <v>1.457126977010006</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.156346005763865</v>
+        <v>0.4489565817954144</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02605665086861819</v>
+        <v>0.07981174054805962</v>
       </c>
       <c r="E14">
-        <v>0.6896145816037205</v>
+        <v>2.46490949642137</v>
       </c>
       <c r="F14">
-        <v>0.4387085113012148</v>
+        <v>0.5908363806666443</v>
       </c>
       <c r="G14">
-        <v>0.2828843733391011</v>
+        <v>0.4458645781621158</v>
       </c>
       <c r="H14">
-        <v>0.4096487481456421</v>
+        <v>0.2560305625842147</v>
       </c>
       <c r="I14">
-        <v>0.3253254416603873</v>
+        <v>0.1031763967587744</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.04388891422829</v>
+        <v>3.364912112156304</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.00205766770798</v>
+        <v>0.6011600878955292</v>
       </c>
       <c r="O14">
-        <v>1.307699040140278</v>
+        <v>1.434448485517066</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1548273953757899</v>
+        <v>0.4440973789008922</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02578877750683262</v>
+        <v>0.07897930405147235</v>
       </c>
       <c r="E15">
-        <v>0.682149163633369</v>
+        <v>2.434314633340065</v>
       </c>
       <c r="F15">
-        <v>0.43762164760318</v>
+        <v>0.5847638346397304</v>
       </c>
       <c r="G15">
-        <v>0.2820263972947998</v>
+        <v>0.4409836993040841</v>
       </c>
       <c r="H15">
-        <v>0.4096264038665964</v>
+        <v>0.2544014680887301</v>
       </c>
       <c r="I15">
-        <v>0.3258953177389423</v>
+        <v>0.104222111981043</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.033065175884389</v>
+        <v>3.329374600660884</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.0026382402474</v>
+        <v>0.6021520890741172</v>
       </c>
       <c r="O15">
-        <v>1.305805956130456</v>
+        <v>1.420649568962688</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1461229532344817</v>
+        <v>0.4162638101854412</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02425157987875082</v>
+        <v>0.07420882948985508</v>
       </c>
       <c r="E16">
-        <v>0.6394124912066843</v>
+        <v>2.260808293760533</v>
       </c>
       <c r="F16">
-        <v>0.4314882431650489</v>
+        <v>0.5504110620756677</v>
       </c>
       <c r="G16">
-        <v>0.277183508004299</v>
+        <v>0.4134342892809997</v>
       </c>
       <c r="H16">
-        <v>0.4095671036183859</v>
+        <v>0.2452896807415073</v>
       </c>
       <c r="I16">
-        <v>0.3292184076257653</v>
+        <v>0.1103495459758926</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9709638736522095</v>
+        <v>3.126059520256007</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.0060788031154</v>
+        <v>0.6081348369233552</v>
       </c>
       <c r="O16">
-        <v>1.295255207876096</v>
+        <v>1.342932357515025</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1407815827380858</v>
+        <v>0.3991985138952998</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02330669612549485</v>
+        <v>0.07128195916501312</v>
       </c>
       <c r="E17">
-        <v>0.6132334056088098</v>
+        <v>2.155872633141101</v>
       </c>
       <c r="F17">
-        <v>0.4278102224554914</v>
+        <v>0.5297155872560069</v>
       </c>
       <c r="G17">
-        <v>0.2742782247136972</v>
+        <v>0.3968897676637795</v>
       </c>
       <c r="H17">
-        <v>0.4095920326435589</v>
+        <v>0.2398911998488273</v>
       </c>
       <c r="I17">
-        <v>0.3313081821024602</v>
+        <v>0.1142263368529909</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9328008787005331</v>
+        <v>3.001600626036094</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.008290864941578</v>
+        <v>0.6120648855894615</v>
       </c>
       <c r="O17">
-        <v>1.289047845896221</v>
+        <v>1.296408812760518</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1377089114036494</v>
+        <v>0.3893859878257047</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02276255218527012</v>
+        <v>0.06959828608641061</v>
       </c>
       <c r="E18">
-        <v>0.5981895005315465</v>
+        <v>2.096024158022658</v>
       </c>
       <c r="F18">
-        <v>0.4257257733269952</v>
+        <v>0.5179437963347979</v>
       </c>
       <c r="G18">
-        <v>0.272631236676844</v>
+        <v>0.3874972245703106</v>
       </c>
       <c r="H18">
-        <v>0.4096288876187515</v>
+        <v>0.236853190333747</v>
       </c>
       <c r="I18">
-        <v>0.3325289617470004</v>
+        <v>0.116498475909787</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9108266952485167</v>
+        <v>2.930101753931098</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.009600475174864</v>
+        <v>0.6144184801243</v>
       </c>
       <c r="O18">
-        <v>1.285574786928436</v>
+        <v>1.27005096569431</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1366684875325461</v>
+        <v>0.3860640933054924</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02257820022710177</v>
+        <v>0.06902817811035789</v>
       </c>
       <c r="E19">
-        <v>0.5930981807455993</v>
+        <v>2.075843587699765</v>
       </c>
       <c r="F19">
-        <v>0.4250253431692457</v>
+        <v>0.5139799984449667</v>
       </c>
       <c r="G19">
-        <v>0.2720777185196823</v>
+        <v>0.3843375855774553</v>
       </c>
       <c r="H19">
-        <v>0.4096452319882928</v>
+        <v>0.2358357907173456</v>
       </c>
       <c r="I19">
-        <v>0.3329455244493759</v>
+        <v>0.1172749588622565</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9033825546642333</v>
+        <v>2.905907239781072</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.01005029440929</v>
+        <v>0.6152311449555228</v>
       </c>
       <c r="O19">
-        <v>1.284415552787578</v>
+        <v>1.261193492996853</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.141350229923944</v>
+        <v>0.4010148224190857</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02340735043005537</v>
+        <v>0.07159354973196486</v>
       </c>
       <c r="E20">
-        <v>0.6160187932416363</v>
+        <v>2.166989675764142</v>
       </c>
       <c r="F20">
-        <v>0.4281985392815812</v>
+        <v>0.5319048598852731</v>
       </c>
       <c r="G20">
-        <v>0.2745850057614376</v>
+        <v>0.3986380218428849</v>
       </c>
       <c r="H20">
-        <v>0.4095870482219368</v>
+        <v>0.2404588659982778</v>
       </c>
       <c r="I20">
-        <v>0.3310837765055822</v>
+        <v>0.1138092449423641</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9368658700410037</v>
+        <v>3.014840262490168</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.008051528433086</v>
+        <v>0.6116368340443685</v>
       </c>
       <c r="O20">
-        <v>1.289698560468821</v>
+        <v>1.30131929626981</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1570741840356789</v>
+        <v>0.4512869455249273</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02618506540572696</v>
+        <v>0.08021091775721345</v>
       </c>
       <c r="E21">
-        <v>0.6931952605309988</v>
+        <v>2.47961451773449</v>
       </c>
       <c r="F21">
-        <v>0.4392313736643843</v>
+        <v>0.5937565143659143</v>
       </c>
       <c r="G21">
-        <v>0.2832971049183755</v>
+        <v>0.448212820269049</v>
       </c>
       <c r="H21">
-        <v>0.4096606793940794</v>
+        <v>0.256815841083494</v>
       </c>
       <c r="I21">
-        <v>0.325053185502228</v>
+        <v>0.1026773698079513</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.049077854241062</v>
+        <v>3.381959717774606</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.001781274694217</v>
+        <v>0.6006897549037689</v>
       </c>
       <c r="O21">
-        <v>1.308612099507769</v>
+        <v>1.441090332875234</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1673447960835119</v>
+        <v>0.4841819270717167</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02799420916196738</v>
+        <v>0.08584292071398636</v>
       </c>
       <c r="E22">
-        <v>0.7437670149723488</v>
+        <v>2.689459854293418</v>
       </c>
       <c r="F22">
-        <v>0.4467194949635171</v>
+        <v>0.6355178783586553</v>
       </c>
       <c r="G22">
-        <v>0.2892068706054687</v>
+        <v>0.4818755992687329</v>
       </c>
       <c r="H22">
-        <v>0.4099096057802427</v>
+        <v>0.2681745057058009</v>
       </c>
       <c r="I22">
-        <v>0.321279373705041</v>
+        <v>0.09580013024733181</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.122194865550512</v>
+        <v>3.622929715071962</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9980147197039457</v>
+        <v>0.5944156695938076</v>
       </c>
       <c r="O22">
-        <v>1.321843485336103</v>
+        <v>1.536508590990763</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1618638059317732</v>
+        <v>0.4666210238142696</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0270292204146827</v>
+        <v>0.08283691034261409</v>
       </c>
       <c r="E23">
-        <v>0.7167632493378733</v>
+        <v>2.576903324952227</v>
       </c>
       <c r="F23">
-        <v>0.4426975006955871</v>
+        <v>0.6130982250855936</v>
       </c>
       <c r="G23">
-        <v>0.2860328794648979</v>
+        <v>0.4637852221550673</v>
       </c>
       <c r="H23">
-        <v>0.4097583609674018</v>
+        <v>0.2620473633607077</v>
       </c>
       <c r="I23">
-        <v>0.3232781921560158</v>
+        <v>0.09943315019320181</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.083191444861654</v>
+        <v>3.494211003692726</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9999947070929451</v>
+        <v>0.5976811318293329</v>
       </c>
       <c r="O23">
-        <v>1.314701806156137</v>
+        <v>1.485184280939364</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1410931502617814</v>
+        <v>0.400193674019846</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0233618474750017</v>
+        <v>0.07145268269903227</v>
       </c>
       <c r="E24">
-        <v>0.6147594984657587</v>
+        <v>2.161962175010402</v>
       </c>
       <c r="F24">
-        <v>0.4280228875133432</v>
+        <v>0.5309146980642367</v>
       </c>
       <c r="G24">
-        <v>0.2744462374953969</v>
+        <v>0.397847266843911</v>
       </c>
       <c r="H24">
-        <v>0.4095892315217071</v>
+        <v>0.2402020204156372</v>
       </c>
       <c r="I24">
-        <v>0.3311851700335063</v>
+        <v>0.1139976774936494</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9350281925621289</v>
+        <v>3.008854456844318</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.008159614507115</v>
+        <v>0.6118300634234402</v>
       </c>
       <c r="O24">
-        <v>1.289404074548571</v>
+        <v>1.299098059862445</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1186722030635963</v>
+        <v>0.3286484200460791</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01938045516200759</v>
+        <v>0.05916372113689761</v>
       </c>
       <c r="E25">
-        <v>0.5052453835082531</v>
+        <v>1.7333495128956</v>
       </c>
       <c r="F25">
-        <v>0.4133803978028041</v>
+        <v>0.4472220400370617</v>
       </c>
       <c r="G25">
-        <v>0.2628667260298698</v>
+        <v>0.3313631817524225</v>
       </c>
       <c r="H25">
-        <v>0.4102674590303934</v>
+        <v>0.2191677372349261</v>
       </c>
       <c r="I25">
-        <v>0.3404326915049554</v>
+        <v>0.1313145023480775</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7743027973165226</v>
+        <v>2.488506000206996</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.018392915543963</v>
+        <v>0.6306267422550391</v>
       </c>
       <c r="O25">
-        <v>1.265831789532569</v>
+        <v>1.113477648513367</v>
       </c>
     </row>
   </sheetData>
